--- a/vivado/Report.xlsx
+++ b/vivado/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\progettazione-low-power\progetti\progetto-3\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27072188-6623-4529-B6D2-E4F84CCC1139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B1163-F915-42D0-801E-D6D34771C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E22A889A-A095-46E2-ACAB-88F50E6B19F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Non Optimized Design</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Clock Gating Sels Design</t>
+  </si>
+  <si>
+    <t>Clock Gating Inputs Design</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,9 +208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B340A5A-10DF-4AC2-8393-6E0EF86818D6}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,13 +570,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -610,25 +610,25 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
@@ -650,25 +650,25 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
         <v>1</v>
       </c>
@@ -689,11 +689,52 @@
         <v>1.338109874632209E-2</v>
       </c>
     </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>2.03909818083048E-3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>8.0843381583690609E-3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3.8097926881164299E-3</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
+        <f>B16+C16+D16</f>
+        <v>1.3933229027315971E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vivado/Report.xlsx
+++ b/vivado/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\progettazione-low-power\progetti\progetto-3\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B1163-F915-42D0-801E-D6D34771C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059EC5EF-9E7B-4F7F-9FC9-D1A2D290D957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E22A889A-A095-46E2-ACAB-88F50E6B19F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Non Optimized Design</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Clock Gating Inputs Design</t>
+  </si>
+  <si>
+    <t>Clock Gating All Design</t>
+  </si>
+  <si>
+    <t>Hybrid Clock Gating All and Registering Design</t>
   </si>
 </sst>
 </file>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B340A5A-10DF-4AC2-8393-6E0EF86818D6}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,8 +570,7 @@
     <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -729,12 +734,88 @@
         <v>1.3933229027315971E-2</v>
       </c>
     </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>1.4888002770021599E-3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>8.0169141292572004E-3</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3.4701528493314999E-3</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <f>B20+C20+D20</f>
+        <v>1.297586725559086E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7">
+        <f>B24+C24+D24</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B22:F22"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vivado/Report.xlsx
+++ b/vivado/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\progettazione-low-power\progetti\progetto-3\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059EC5EF-9E7B-4F7F-9FC9-D1A2D290D957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D768E-78B2-4601-A299-CC50D48E005F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E22A889A-A095-46E2-ACAB-88F50E6B19F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Non Optimized Design</t>
   </si>
@@ -81,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,18 +90,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -110,17 +104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -144,13 +127,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -162,24 +151,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -198,32 +169,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,264 +530,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B340A5A-10DF-4AC2-8393-6E0EF86818D6}">
-  <dimension ref="B2:F24"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="6">
+        <v>1.7108991742134101E-3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.5287989992648402E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.5887991758063401E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.03909818083048E-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.4888002770021599E-3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.01009842567146E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="6">
+        <v>8.2017192617058806E-3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.1427957154810403E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8.1042144447565096E-3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.0843381583690609E-3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>8.0169141292572004E-3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7.0602511987090102E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="C6" s="6">
+        <v>3.8697000127285702E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.55344109609723E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.6880851257592401E-3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.8097926881164299E-3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.4701528493314999E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.4122339673340299E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>1.7108991742134101E-3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>8.2017192617058806E-3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3.8697000127285702E-3</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
-        <f>B4+C4+D4</f>
+      <c r="C7" s="7">
+        <f>C$4+C$5+C$6</f>
         <v>1.378231844864786E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>2.5287989992648402E-3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7.1427957154810403E-3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2.55344109609723E-3</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
-        <f>B8+C8+D8</f>
+      <c r="D7" s="7">
+        <f>D$4+D$5+D$6</f>
         <v>1.222503581084311E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E7" s="7">
+        <f>E$4+E$5+E$6</f>
+        <v>1.338109874632209E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <f>F$4+F$5+F$6</f>
+        <v>1.3933229027315971E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <f>G$4+G$5+G$6</f>
+        <v>1.297586725559086E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <f>H$4+H$5+H$6</f>
+        <v>1.14825835917145E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>1.5887991758063401E-3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>8.1042144447565096E-3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3.6880851257592401E-3</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
-        <f>B12+C12+D12</f>
-        <v>1.338109874632209E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>2.03909818083048E-3</v>
-      </c>
-      <c r="C16" s="6">
-        <v>8.0843381583690609E-3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3.8097926881164299E-3</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
-        <f>B16+C16+D16</f>
-        <v>1.3933229027315971E-2</v>
-      </c>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>1.4888002770021599E-3</v>
-      </c>
-      <c r="C20" s="6">
-        <v>8.0169141292572004E-3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3.4701528493314999E-3</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7">
-        <f>B20+C20+D20</f>
-        <v>1.297586725559086E-2</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7">
-        <f>B24+C24+D24</f>
-        <v>0</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B18:F18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vivado/Report.xlsx
+++ b/vivado/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\progettazione-low-power\progetti\progetto-3\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D768E-78B2-4601-A299-CC50D48E005F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEF1958-9734-4BE2-A075-6DF735979FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E22A889A-A095-46E2-ACAB-88F50E6B19F4}"/>
   </bookViews>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Non Optimized Design</t>
   </si>
   <si>
-    <t>Total Power</t>
-  </si>
-  <si>
-    <t>Signals Data Power</t>
-  </si>
-  <si>
-    <t>Clocks Power</t>
-  </si>
-  <si>
-    <t>Logic Power</t>
-  </si>
-  <si>
     <t>Registering Design</t>
   </si>
   <si>
@@ -66,13 +54,52 @@
   </si>
   <si>
     <t>Hybrid Clock Gating All and Registering Design</t>
+  </si>
+  <si>
+    <t>Power Analysis</t>
+  </si>
+  <si>
+    <t>Frequency Analysis</t>
+  </si>
+  <si>
+    <t>Timing Analysis</t>
+  </si>
+  <si>
+    <t>Resource Utilization Analysis</t>
+  </si>
+  <si>
+    <t>Clock Constraint [ns]</t>
+  </si>
+  <si>
+    <t>WNS [ns]</t>
+  </si>
+  <si>
+    <t>Clocks Power [W]</t>
+  </si>
+  <si>
+    <t>Signals Data Power [W]</t>
+  </si>
+  <si>
+    <t>Logic Power [W]</t>
+  </si>
+  <si>
+    <t>Total Power [W]</t>
+  </si>
+  <si>
+    <t>LUT [#]</t>
+  </si>
+  <si>
+    <t>FF [#]</t>
+  </si>
+  <si>
+    <t>Maximum Clock Frequency [GHz]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +107,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC09200"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,15 +146,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -158,6 +190,15 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -169,32 +210,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -202,6 +243,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC09200"/>
+      <color rgb="FFD2A000"/>
+      <color rgb="FFEEB500"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -530,22 +578,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B340A5A-10DF-4AC2-8393-6E0EF86818D6}">
-  <dimension ref="B1:H33"/>
+  <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -557,308 +605,313 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.7108991742134101E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.5287989992648402E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.5887991758063401E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.03909818083048E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.4888002770021599E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.01009842567146E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8.2017192617058806E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.1427957154810403E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.1042144447565096E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.0843381583690609E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.0169141292572004E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.0602511987090102E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.8697000127285702E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.55344109609723E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.6880851257592401E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.8097926881164299E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.4701528493314999E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.4122339673340299E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <f>C$5+C$6+C$7</f>
+        <v>1.378231844864786E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <f>D$5+D$6+D$7</f>
+        <v>1.222503581084311E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <f>E$5+E$6+E$7</f>
+        <v>1.338109874632209E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f>F$5+F$6+F$7</f>
+        <v>1.3933229027315971E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f>G$5+G$6+G$7</f>
+        <v>1.297586725559086E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f>H$5+H$6+H$7</f>
+        <v>1.14825835917145E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.052</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.383</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.107</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <f>1/(C$10-C$11)</f>
+        <v>0.11122233344455568</v>
+      </c>
+      <c r="D13" s="2">
+        <f>1/(D$10-D$11)</f>
+        <v>0.11175681716584711</v>
+      </c>
+      <c r="E13" s="2">
+        <f>1/(E$10-E$11)</f>
+        <v>0.11604966925844259</v>
+      </c>
+      <c r="F13" s="2">
+        <f>1/(F$10-F$11)</f>
+        <v>0.11763321962122104</v>
+      </c>
+      <c r="G13" s="2">
+        <f>1/(G$10-G$11)</f>
+        <v>0.11244799280332846</v>
+      </c>
+      <c r="H13" s="2">
+        <f>1/(H$10-H$11)</f>
+        <v>0.11244799280332846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.7108991742134101E-3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.5287989992648402E-3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1.5887991758063401E-3</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2.03909818083048E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1.4888002770021599E-3</v>
-      </c>
-      <c r="H4" s="6">
-        <v>2.01009842567146E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8.2017192617058806E-3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>7.1427957154810403E-3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>8.1042144447565096E-3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>8.0843381583690609E-3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>8.0169141292572004E-3</v>
-      </c>
-      <c r="H5" s="6">
-        <v>7.0602511987090102E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3.8697000127285702E-3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.55344109609723E-3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3.6880851257592401E-3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3.8097926881164299E-3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3.4701528493314999E-3</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2.4122339673340299E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <f>C$4+C$5+C$6</f>
-        <v>1.378231844864786E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <f>D$4+D$5+D$6</f>
-        <v>1.222503581084311E-2</v>
-      </c>
-      <c r="E7" s="7">
-        <f>E$4+E$5+E$6</f>
-        <v>1.338109874632209E-2</v>
-      </c>
-      <c r="F7" s="7">
-        <f>F$4+F$5+F$6</f>
-        <v>1.3933229027315971E-2</v>
-      </c>
-      <c r="G7" s="7">
-        <f>G$4+G$5+G$6</f>
-        <v>1.297586725559086E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <f>H$4+H$5+H$6</f>
-        <v>1.14825835917145E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>132</v>
+      </c>
+      <c r="D15" s="2">
+        <v>132</v>
+      </c>
+      <c r="E15" s="2">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2">
+        <v>125</v>
+      </c>
+      <c r="G15" s="2">
+        <v>125</v>
+      </c>
+      <c r="H15" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>177</v>
+      </c>
+      <c r="D16" s="3">
+        <v>253</v>
+      </c>
+      <c r="E16" s="3">
+        <v>177</v>
+      </c>
+      <c r="F16" s="3">
+        <v>177</v>
+      </c>
+      <c r="G16" s="3">
+        <v>177</v>
+      </c>
+      <c r="H16" s="3">
+        <v>253</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B14:H14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vivado/Report.xlsx
+++ b/vivado/Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\progettazione-low-power\progetti\progetto-3\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEF1958-9734-4BE2-A075-6DF735979FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E9A04-4CFA-4482-A9DA-86A80E3BECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E22A889A-A095-46E2-ACAB-88F50E6B19F4}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Timing Analysis</t>
   </si>
   <si>
-    <t>Resource Utilization Analysis</t>
-  </si>
-  <si>
     <t>Clock Constraint [ns]</t>
   </si>
   <si>
@@ -93,13 +90,16 @@
   </si>
   <si>
     <t>Maximum Clock Frequency [GHz]</t>
+  </si>
+  <si>
+    <t>Resources Utilization Analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -205,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,22 +226,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,19 +591,14 @@
   <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -605,42 +610,42 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
         <v>1.7108991742134101E-3</v>
       </c>
       <c r="D5" s="2">
@@ -659,11 +664,11 @@
         <v>2.01009842567146E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
         <v>8.2017192617058806E-3</v>
       </c>
       <c r="D6" s="2">
@@ -682,11 +687,11 @@
         <v>7.0602511987090102E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
         <v>3.8697000127285702E-3</v>
       </c>
       <c r="D7" s="2">
@@ -705,148 +710,148 @@
         <v>2.4122339673340299E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <f>C$5+C$6+C$7</f>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:H8" si="0">C$5+C$6+C$7</f>
         <v>1.378231844864786E-2</v>
       </c>
       <c r="D8" s="2">
-        <f>D$5+D$6+D$7</f>
+        <f t="shared" si="0"/>
         <v>1.222503581084311E-2</v>
       </c>
       <c r="E8" s="2">
-        <f>E$5+E$6+E$7</f>
+        <f t="shared" si="0"/>
         <v>1.338109874632209E-2</v>
       </c>
       <c r="F8" s="2">
-        <f>F$5+F$6+F$7</f>
+        <f t="shared" si="0"/>
         <v>1.3933229027315971E-2</v>
       </c>
       <c r="G8" s="2">
-        <f>G$5+G$6+G$7</f>
+        <f t="shared" si="0"/>
         <v>1.297586725559086E-2</v>
       </c>
       <c r="H8" s="2">
-        <f>H$5+H$6+H$7</f>
+        <f t="shared" si="0"/>
         <v>1.14825835917145E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
         <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="1">
         <v>10</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
         <v>1.0089999999999999</v>
       </c>
       <c r="D11" s="2">
         <v>1.052</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="1">
         <v>1.383</v>
       </c>
       <c r="F11" s="2">
         <v>1.4990000000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="1">
         <v>1.107</v>
       </c>
       <c r="H11" s="2">
         <v>1.107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:H13" si="1">1/(C$10-C$11)</f>
+        <v>0.11122233344455568</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11175681716584711</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11604966925844259</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11763321962122104</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11244799280332846</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11244799280332846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <f>1/(C$10-C$11)</f>
-        <v>0.11122233344455568</v>
-      </c>
-      <c r="D13" s="2">
-        <f>1/(D$10-D$11)</f>
-        <v>0.11175681716584711</v>
-      </c>
-      <c r="E13" s="2">
-        <f>1/(E$10-E$11)</f>
-        <v>0.11604966925844259</v>
-      </c>
-      <c r="F13" s="2">
-        <f>1/(F$10-F$11)</f>
-        <v>0.11763321962122104</v>
-      </c>
-      <c r="G13" s="2">
-        <f>1/(G$10-G$11)</f>
-        <v>0.11244799280332846</v>
-      </c>
-      <c r="H13" s="2">
-        <f>1/(H$10-H$11)</f>
-        <v>0.11244799280332846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>132</v>
@@ -867,10 +872,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="3">
         <v>177</v>

--- a/vivado/Report.xlsx
+++ b/vivado/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\progettazione-low-power\progetti\progetto-3\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E9A04-4CFA-4482-A9DA-86A80E3BECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91124EFE-69B0-40AC-811E-AA3A6E03ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E22A889A-A095-46E2-ACAB-88F50E6B19F4}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Registering Design</t>
   </si>
   <si>
-    <t>Clock Gating Sels Design</t>
-  </si>
-  <si>
     <t>Clock Gating Inputs Design</t>
   </si>
   <si>
@@ -71,28 +68,31 @@
     <t>WNS [ns]</t>
   </si>
   <si>
-    <t>Clocks Power [W]</t>
-  </si>
-  <si>
-    <t>Signals Data Power [W]</t>
-  </si>
-  <si>
-    <t>Logic Power [W]</t>
-  </si>
-  <si>
-    <t>Total Power [W]</t>
-  </si>
-  <si>
     <t>LUT [#]</t>
   </si>
   <si>
     <t>FF [#]</t>
   </si>
   <si>
-    <t>Maximum Clock Frequency [GHz]</t>
-  </si>
-  <si>
     <t>Resources Utilization Analysis</t>
+  </si>
+  <si>
+    <t>Maximum Clock Frequency [MHz]</t>
+  </si>
+  <si>
+    <t>Clocks Power [mW]</t>
+  </si>
+  <si>
+    <t>Signals Data Power [mW]</t>
+  </si>
+  <si>
+    <t>Logic Power [mW]</t>
+  </si>
+  <si>
+    <t>Total Power [mW]</t>
+  </si>
+  <si>
+    <t>Clock Gating Selectors Design</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC09200"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,16 +241,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,15 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B340A5A-10DF-4AC2-8393-6E0EF86818D6}">
-  <dimension ref="A3:H22"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
@@ -610,7 +622,20 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -618,142 +643,173 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>11</v>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="5">
-        <v>1.7108991742134101E-3</v>
+        <f>1000*0.00171089917421341</f>
+        <v>1.7108991742134101</v>
       </c>
       <c r="D5" s="2">
-        <v>2.5287989992648402E-3</v>
+        <f>1000*0.00252879899926484</f>
+        <v>2.5287989992648403</v>
       </c>
       <c r="E5" s="2">
-        <v>1.5887991758063401E-3</v>
+        <f>1000*0.00158879917580634</f>
+        <v>1.58879917580634</v>
       </c>
       <c r="F5" s="2">
-        <v>2.03909818083048E-3</v>
+        <f>1000*0.00203909818083048</f>
+        <v>2.03909818083048</v>
       </c>
       <c r="G5" s="2">
-        <v>1.4888002770021599E-3</v>
+        <f>1000*0.00148880027700216</f>
+        <v>1.48880027700216</v>
       </c>
       <c r="H5" s="2">
-        <v>2.01009842567146E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>12</v>
+        <f>1000*0.00201009842567146</f>
+        <v>2.01009842567146</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>8.2017192617058806E-3</v>
+        <f>1000*0.00820171926170588</f>
+        <v>8.2017192617058807</v>
       </c>
       <c r="D6" s="2">
-        <v>7.1427957154810403E-3</v>
+        <f>1000*0.00714279571548104</f>
+        <v>7.1427957154810402</v>
       </c>
       <c r="E6" s="2">
-        <v>8.1042144447565096E-3</v>
+        <f>1000*0.00810421444475651</f>
+        <v>8.1042144447565096</v>
       </c>
       <c r="F6" s="2">
-        <v>8.0843381583690609E-3</v>
+        <f>1000*0.00808433815836906</f>
+        <v>8.0843381583690608</v>
       </c>
       <c r="G6" s="2">
-        <v>8.0169141292572004E-3</v>
+        <f>1000*0.0080169141292572</f>
+        <v>8.0169141292572004</v>
       </c>
       <c r="H6" s="2">
-        <v>7.0602511987090102E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>13</v>
+        <f>1000*0.00706025119870901</f>
+        <v>7.0602511987090102</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="5">
-        <v>3.8697000127285702E-3</v>
+        <f>1000*0.00386970001272857</f>
+        <v>3.8697000127285701</v>
       </c>
       <c r="D7" s="2">
-        <v>2.55344109609723E-3</v>
+        <f>1000*0.00255344109609723</f>
+        <v>2.55344109609723</v>
       </c>
       <c r="E7" s="2">
-        <v>3.6880851257592401E-3</v>
+        <f>1000*0.00368808512575924</f>
+        <v>3.68808512575924</v>
       </c>
       <c r="F7" s="2">
-        <v>3.8097926881164299E-3</v>
+        <f>1000*0.00380979268811643</f>
+        <v>3.8097926881164299</v>
       </c>
       <c r="G7" s="2">
-        <v>3.4701528493314999E-3</v>
+        <f>1000*0.0034701528493315</f>
+        <v>3.4701528493314999</v>
       </c>
       <c r="H7" s="2">
-        <v>2.4122339673340299E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>14</v>
+        <f>1000*0.00241223396733403</f>
+        <v>2.4122339673340298</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">C$5+C$6+C$7</f>
-        <v>1.378231844864786E-2</v>
+        <v>13.78231844864786</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.222503581084311E-2</v>
+        <v>12.22503581084311</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.338109874632209E-2</v>
+        <v>13.38109874632209</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.3933229027315971E-2</v>
+        <v>13.933229027315971</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.297586725559086E-2</v>
+        <v>12.97586725559086</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.14825835917145E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+        <v>11.4825835917145</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -773,10 +829,12 @@
       <c r="H10" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>10</v>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>1.0089999999999999</v>
@@ -796,62 +854,69 @@
       <c r="H11" s="2">
         <v>1.107</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>17</v>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:H13" si="1">1/(C$10-C$11)</f>
-        <v>0.11122233344455568</v>
+        <f t="shared" ref="C13:H13" si="1">1000*1/(C$10-C$11)</f>
+        <v>111.22233344455567</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>0.11175681716584711</v>
+        <v>111.75681716584711</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0.11604966925844259</v>
+        <v>116.04966925844261</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>0.11763321962122104</v>
+        <v>117.63321962122104</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>0.11244799280332846</v>
+        <v>112.44799280332845</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>0.11244799280332846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
-        <v>15</v>
+        <v>112.44799280332845</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="2">
         <v>132</v>
@@ -871,11 +936,12 @@
       <c r="H15" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
-        <v>16</v>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="3">
         <v>177</v>
@@ -895,15 +961,27 @@
       <c r="H16" s="3">
         <v>253</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>

--- a/vivado/Report.xlsx
+++ b/vivado/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\progettazione-low-power\progetti\progetto-3\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91124EFE-69B0-40AC-811E-AA3A6E03ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327AD768-BB3D-45F8-80B7-8DA7E20F2726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E22A889A-A095-46E2-ACAB-88F50E6B19F4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E22A889A-A095-46E2-ACAB-88F50E6B19F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Non Optimized Design</t>
   </si>
@@ -94,12 +94,15 @@
   <si>
     <t>Clock Gating Selectors Design</t>
   </si>
+  <si>
+    <t>ABSOLUTE ERROR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +120,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -218,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,13 +261,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -281,6 +295,4367 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Power analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clocks Power [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Non Optimized Design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Registering Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clock Gating Selectors Design</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clock Gating Inputs Design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Clock Gating All Design</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hybrid Clock Gating All and Registering Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7108991742134101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5287989992648403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.58879917580634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.03909818083048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.48880027700216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.01009842567146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C33B-4EA6-A604-B4CB05823DB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Signals Data Power [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.2017192617058807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1427957154810402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1042144447565096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0843381583690608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0169141292572004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0602511987090102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C33B-4EA6-A604-B4CB05823DB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logic Power [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8697000127285701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.55344109609723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.68808512575924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8097926881164299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4701528493314999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4122339673340298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C33B-4EA6-A604-B4CB05823DB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Power [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.78231844864786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.22503581084311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.38109874632209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.933229027315971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.97586725559086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.4825835917145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C33B-4EA6-A604-B4CB05823DB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="357310687"/>
+        <c:axId val="358644431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="357310687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358644431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="358644431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357310687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>POWER ABSOLUTE ERROR ANALYSIS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clocks Power [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$19:$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Registering Design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clock Gating Selectors Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clock Gating Inputs Design</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clock Gating All Design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hybrid Clock Gating All and Registering Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$21:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.81789982505143022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.12209999840707009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32819900661706991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22209889721125009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29919925145804993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-714E-4BFD-8885-30C938C7F9FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Signals Data Power [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.0589235462248405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.7504816949371076E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11738110333681995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.18480513244868035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1414680629968705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-714E-4BFD-8885-30C938C7F9FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logic Power [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.3162589166313401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.18161488696933015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9907324612140211E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.39954716339707019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4574660453945403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-714E-4BFD-8885-30C938C7F9FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Power [mW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.5572826378047502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.4012197023257702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15091057866811042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.80645119305700064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2997348569333607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-714E-4BFD-8885-30C938C7F9FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="357296767"/>
+        <c:axId val="171019839"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="357296767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171019839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171019839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357296767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RESOURCES UTILIZATION ANALYSIS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUT [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Non Optimized Design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Registering Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clock Gating Selectors Design</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clock Gating Inputs Design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Clock Gating All Design</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hybrid Clock Gating All and Registering Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8206-45D5-A531-80F1AD49BE9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8206-45D5-A531-80F1AD49BE9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="349997679"/>
+        <c:axId val="478106671"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="349997679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478106671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478106671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349997679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RESOURCES UTILIZATION ABSOLUTE ERROR ANALYSIS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUT [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$D$19:$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Registering Design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clock Gating Selectors Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clock Gating Inputs Design</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clock Gating All Design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hybrid Clock Gating All and Registering Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-488F-47F9-80B9-772D69D13FD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF [#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$32:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-488F-47F9-80B9-772D69D13FD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="349988079"/>
+        <c:axId val="344796255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349988079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344796255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344796255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349988079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1685924</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>292416</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C74BA04-0DEA-A86A-704D-E9DFB89E6905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>314764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1669676</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CDC31D-29F5-CAA9-A89F-50B9FB19BDB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34017</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1993F46E-34ED-A1B5-F99C-5B1E22E10A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>20409</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>329291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324303</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DD97E8-0800-499A-A7D0-199BABA7A13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,10 +4975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B340A5A-10DF-4AC2-8393-6E0EF86818D6}">
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,19 +4998,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -654,23 +5029,23 @@
       <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -698,10 +5073,10 @@
         <f>1000*0.00201009842567146</f>
         <v>2.01009842567146</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
@@ -729,10 +5104,10 @@
         <f>1000*0.00706025119870901</f>
         <v>7.0602511987090102</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
@@ -760,54 +5135,54 @@
         <f>1000*0.00241223396733403</f>
         <v>2.4122339673340298</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:H8" si="0">C$5+C$6+C$7</f>
+        <f>C$5+C$6+C$7</f>
         <v>13.78231844864786</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f>D$5+D$6+D$7</f>
         <v>12.22503581084311</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f>E$5+E$6+E$7</f>
         <v>13.38109874632209</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>F$5+F$6+F$7</f>
         <v>13.933229027315971</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f>G$5+G$6+G$7</f>
         <v>12.97586725559086</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f>H$5+H$6+H$7</f>
         <v>11.4825835917145</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
@@ -829,10 +5204,10 @@
       <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -854,67 +5229,67 @@
       <c r="H11" s="2">
         <v>1.107</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:H13" si="1">1000*1/(C$10-C$11)</f>
+        <f>1000*1/(C$10-C$11)</f>
         <v>111.22233344455567</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f>1000*1/(D$10-D$11)</f>
         <v>111.75681716584711</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f>1000*1/(E$10-E$11)</f>
         <v>116.04966925844261</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f>1000*1/(F$10-F$11)</f>
         <v>117.63321962122104</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f>1000*1/(G$10-G$11)</f>
         <v>112.44799280332845</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f>1000*1/(H$10-H$11)</f>
         <v>112.44799280332845</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
@@ -936,10 +5311,10 @@
       <c r="H15" s="2">
         <v>132</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
@@ -961,18 +5336,18 @@
       <c r="H16" s="3">
         <v>253</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
@@ -981,20 +5356,342 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
+        <f>1000*0.00171089917421341</f>
+        <v>1.7108991742134101</v>
+      </c>
+      <c r="D21" s="2">
+        <f>1000*0.00252879899926484-C21</f>
+        <v>0.81789982505143022</v>
+      </c>
+      <c r="E21" s="2">
+        <f>1000*0.00158879917580634-C21</f>
+        <v>-0.12209999840707009</v>
+      </c>
+      <c r="F21" s="2">
+        <f>1000*0.00203909818083048-C21</f>
+        <v>0.32819900661706991</v>
+      </c>
+      <c r="G21" s="2">
+        <f>1000*0.00148880027700216-C21</f>
+        <v>-0.22209889721125009</v>
+      </c>
+      <c r="H21" s="2">
+        <f>1000*0.00201009842567146-C21</f>
+        <v>0.29919925145804993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <f>1000*0.00820171926170588</f>
+        <v>8.2017192617058807</v>
+      </c>
+      <c r="D22" s="2">
+        <f>1000*0.00714279571548104-C22</f>
+        <v>-1.0589235462248405</v>
+      </c>
+      <c r="E22" s="2">
+        <f>1000*0.00810421444475651-C22</f>
+        <v>-9.7504816949371076E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <f>1000*0.00808433815836906-C22</f>
+        <v>-0.11738110333681995</v>
+      </c>
+      <c r="G22" s="2">
+        <f>1000*0.0080169141292572-C22</f>
+        <v>-0.18480513244868035</v>
+      </c>
+      <c r="H22" s="2">
+        <f>1000*0.00706025119870901-C22</f>
+        <v>-1.1414680629968705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <f>1000*0.00386970001272857</f>
+        <v>3.8697000127285701</v>
+      </c>
+      <c r="D23" s="2">
+        <f>1000*0.00255344109609723-C23</f>
+        <v>-1.3162589166313401</v>
+      </c>
+      <c r="E23" s="2">
+        <f>1000*0.00368808512575924-C23</f>
+        <v>-0.18161488696933015</v>
+      </c>
+      <c r="F23" s="2">
+        <f>1000*0.00380979268811643-C23</f>
+        <v>-5.9907324612140211E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <f>1000*0.0034701528493315-C23</f>
+        <v>-0.39954716339707019</v>
+      </c>
+      <c r="H23" s="2">
+        <f>1000*0.00241223396733403-C23</f>
+        <v>-1.4574660453945403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5">
+        <f>C$5+C$6+C$7</f>
+        <v>13.78231844864786</v>
+      </c>
+      <c r="D24" s="2">
+        <f>(D$5+D$6+D$7)-C24</f>
+        <v>-1.5572826378047502</v>
+      </c>
+      <c r="E24" s="2">
+        <f>(E$5+E$6+E$7)-C24</f>
+        <v>-0.4012197023257702</v>
+      </c>
+      <c r="F24" s="2">
+        <f>(F$5+F$6+F$7)-C24</f>
+        <v>0.15091057866811042</v>
+      </c>
+      <c r="G24" s="2">
+        <f>(G$5+G$6+G$7)-C24</f>
+        <v>-0.80645119305700064</v>
+      </c>
+      <c r="H24" s="2">
+        <f>(H$5+H$6+H$7)-C24</f>
+        <v>-2.2997348569333607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26-10</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f>C26-10</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f>C26-10</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f>C26-10</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f>C26-10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <f>1.052-C27</f>
+        <v>4.3000000000000149E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <f>1.383-C27</f>
+        <v>0.37400000000000011</v>
+      </c>
+      <c r="F27" s="2">
+        <f>1.499-C27</f>
+        <v>0.49000000000000021</v>
+      </c>
+      <c r="G27" s="1">
+        <f>1.107-C27</f>
+        <v>9.8000000000000087E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <f>1.107-C27</f>
+        <v>9.8000000000000087E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <f>1000*1/(C$10-C$11)</f>
+        <v>111.22233344455567</v>
+      </c>
+      <c r="D29" s="2">
+        <f>1000*1/(D$10-D$11)-C29</f>
+        <v>0.53448372129143706</v>
+      </c>
+      <c r="E29" s="2">
+        <f>1000*1/(E$10-E$11)-C29</f>
+        <v>4.8273358138869327</v>
+      </c>
+      <c r="F29" s="2">
+        <f>1000*1/(F$10-F$11)-C29</f>
+        <v>6.4108861766653717</v>
+      </c>
+      <c r="G29" s="2">
+        <f>1000*1/(G$10-G$11)-C29</f>
+        <v>1.2256593587727735</v>
+      </c>
+      <c r="H29" s="2">
+        <f>1000*1/(H$10-H$11)-C29</f>
+        <v>1.2256593587727735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>132</v>
+      </c>
+      <c r="D31" s="2">
+        <f>C31-132</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f>122-C31</f>
+        <v>-10</v>
+      </c>
+      <c r="F31" s="2">
+        <f>125-C31</f>
+        <v>-7</v>
+      </c>
+      <c r="G31" s="2">
+        <f>125-C31</f>
+        <v>-7</v>
+      </c>
+      <c r="H31" s="2">
+        <f>C31-132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>177</v>
+      </c>
+      <c r="D32" s="3">
+        <f>253-C32</f>
+        <v>76</v>
+      </c>
+      <c r="E32" s="3">
+        <f>C32-177</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <f>C32-177</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f>C32-177</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <f>253-C32</f>
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B12:H12"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>